--- a/biology/Zoologie/Eutittha/Eutittha.xlsx
+++ b/biology/Zoologie/Eutittha/Eutittha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eutittha est un genre d'araignées aranéomorphes de la famille des Cheiracanthiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eutittha est un genre d'araignées aranéomorphes de la famille des Cheiracanthiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Océanie, en Asie du Sud-Est et en Asie de l'Est[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Océanie, en Asie du Sud-Est et en Asie de l'Est.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 21/03/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 21/03/2024) :
 Eutittha brevicalcarata (L. Koch, 1873)
 Eutittha excavata (Rainbow, 1920)
 Eutittha hainanensis Li &amp; Zhang, 2024
@@ -582,9 +598,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Thorell en 1878 dans les Drassidae. Il est placé en synonymie avec Cheiracanthium par Simon en 1897[2]. Il est relevé de synonymie par Esyunin et Zamani en 2020[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Thorell en 1878 dans les Drassidae. Il est placé en synonymie avec Cheiracanthium par Simon en 1897. Il est relevé de synonymie par Esyunin et Zamani en 2020.
 </t>
         </is>
       </c>
@@ -613,7 +631,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Thorell, 1878 : « Studi sui ragni Malesi e Papuani. II. Ragni di Amboina raccolti Prof. O. Beccari. » Annali del Museo Civico di Storia Naturale di Genova, vol. 13, p. 1-317 (texte intégral).</t>
         </is>
